--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CC8B01-264D-4E5C-A744-AFD293066218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9BC6E-C451-4703-812B-625A79C0FAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="3585" windowWidth="21930" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +489,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -560,8 +568,8 @@
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>19</v>
@@ -583,8 +591,8 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>179.2</v>
